--- a/data/trans_bre/P12B1_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12B1_2_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,14</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,56</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-17,09</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-31,12%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-11,06%</t>
+          <t>-40,78%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-47,22%</t>
+          <t>23,8%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>27,36%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>18,1%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-29,14; 10,89</t>
+          <t>-6,85; 2,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,29; 15,92</t>
+          <t>-2,34; 3,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,22; 14,19</t>
+          <t>-2,25; 3,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-37,53; 0,54</t>
+          <t>-4,23; 4,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-83,18; 149,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-53,13; 170,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-54,91; 116,55</t>
+          <t>-90,79; 203,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-75,8; 9,1</t>
+          <t>-56,68; 298,06</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-50,39; 195,5</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-76,66; 314,46</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,16</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-12,59</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-16,38%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-39,34%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>59,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-0,9%</t>
+          <t>-43,13%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16,65%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-42,79%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-25,02; 16,28</t>
+          <t>-0,98; 2,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,14; 5,47</t>
+          <t>-3,43; 0,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,36; 22,05</t>
+          <t>-1,49; 1,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,11; 20,91</t>
+          <t>-4,69; 0,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-58,12; 80,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-73,7; 27,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,4; 131,77</t>
+          <t>-44,36; 393,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-47,15; 58,2</t>
+          <t>-77,31; 23,58</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-46,59; 145,38</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-78,33; 29,4</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-13,26</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-26,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-12,33</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-19,7</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-36,71%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-55,63%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-34,87%</t>
+          <t>-55,01%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-38,0%</t>
+          <t>-13,9%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-16,74%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-35,21%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-42,1; 20,48</t>
+          <t>-4,29; 0,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-58,32; 3,07</t>
+          <t>-1,72; 1,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-37,73; 10,11</t>
+          <t>-1,79; 1,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-58,96; 24,55</t>
+          <t>-4,2; 1,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-81,97; 99,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-87,92; 12,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-72,81; 54,21</t>
+          <t>-92,44; 86,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-81,24; 116,29</t>
+          <t>-77,96; 232,85</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-74,36; 156,25</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-77,33; 70,84</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-8,9</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-9,35</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,88</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-14,67</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-31,57%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-31,74%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-10,34%</t>
+          <t>-8,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-34,34%</t>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-9,25%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-22,12; 4,2</t>
+          <t>-1,77; 1,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,04; 2,07</t>
+          <t>-3,59; 2,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,47; 7,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,48; -0,39</t>
+          <t>-3,4; 2,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-58,01; 20,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,85; 12,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-42,67; 37,44</t>
+          <t>-63,2; 150,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-55,31; 0,15</t>
+          <t>-88,5; 413,7</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-62,08; 97,15</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-11,77%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-16,03%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>13,63%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-21,32%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,32; 0,88</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,57; 0,63</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,78; 1,4</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-2,53; 0,62</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-48,05; 57,32</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-50,46; 38,53</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-26,06; 88,49</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-48,47; 20,17</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P12B1_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12B1_2_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,68</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,82</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-40,78%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>23,8%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>27,36%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>18,1%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>-2.928074063181176</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.611724125215991</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.6377973195275537</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.4724065687517015</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>-0.568956157998586</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2098780330243589</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.2065298727976171</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.1187303588127386</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-6,85; 2,12</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,34; 3,38</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,25; 3,4</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-4,23; 4,84</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-90,79; 203,18</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-56,68; 298,06</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-50,39; 195,5</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-76,66; 314,46</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.883337964721164</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.432123491573575</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.424355745822187</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-4.542998009770869</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.9439011146074433</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.57059773408404</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.5218354045955143</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.7510848612378297</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.332913854967397</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.341866633303699</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.258805265731937</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>4.584223559740043</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>0.9314870947126652</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.915330347179203</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.859184125530133</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>3.079516748722188</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,33</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,79</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>59,26%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-43,13%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>16,65%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-42,79%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,98; 2,89</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,43; 0,37</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,49; 1,99</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-4,69; 0,52</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-44,36; 393,79</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-77,31; 23,58</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-46,59; 145,38</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-78,33; 29,4</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>1.086369631368488</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.179007192457307</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.3189379907112991</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-1.803876851683348</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>0.688341238848031</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.4051078660122492</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.1363912977448543</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.4338210974062584</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,41</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,19</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,27</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-1,32</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-55,01%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-13,9%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-16,74%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-35,21%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.8470757781291953</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-3.17501714857467</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.562121340478734</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-4.90469850379128</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.4383782089721353</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.7624173226505241</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.4831243855660065</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.7842147004287544</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,29; 0,45</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,72; 1,27</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,79; 1,13</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-4,2; 1,21</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-92,44; 86,78</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-77,96; 232,85</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-74,36; 156,25</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-77,33; 70,84</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.219760085130797</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.5023317609870976</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.90297837042626</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.4863185721994071</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>4.130803531217451</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.3021994345240962</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.366492398726055</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.2752656365654271</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,16</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-8,07%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>1,59%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-9,25%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-2.379444324609898</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.1416356087067819</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.2870496445972893</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-1.526374437943494</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.6677428448753112</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.1076123746028987</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.1801657067595794</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.3926427757357429</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,77; 1,6</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,59; 2,0</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-3,4; 2,61</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-63,2; 150,25</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-88,5; 413,7</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-62,08; 97,15</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.964578444877075</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.633012737110412</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.906510661493109</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-4.466200500398959</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.7693601978939203</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.754789462890032</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.7900649917809515</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-0.001941788378326787</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.333029233305991</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.052601265927946</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.039397981554031</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.2493189313031646</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.516413502553682</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.573978207756361</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.616189615044661</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,31</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,86</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-11,77%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-16,03%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>13,63%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-21,32%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,32; 0,88</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,57; 0,63</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,78; 1,4</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-2,53; 0,62</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-48,05; 57,32</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-50,46; 38,53</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-26,06; 88,49</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-48,47; 20,17</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.8233372723925408</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.4367793427948626</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.2317607046979732</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-1.148696749453237</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>-0.2855121062817306</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1823493285693401</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.1024630774496296</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.285177515297441</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.680351983226193</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.636739781416773</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.8719414493643335</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-3.18111563490867</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.6546118838252237</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.52201649664317</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.290425190979401</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.6041433852080724</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.702631252734903</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.6727109582405841</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.327817043959074</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.5728122328495208</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>0.3737710694894769</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.4133910091107851</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.836410332039781</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.2462148553938664</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
